--- a/neha.xlsx
+++ b/neha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -140,24 +140,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Account is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -241,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J37" totalsRowShown="0">
-  <x:autoFilter ref="A1:J37"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
+  <x:autoFilter ref="A1:J16"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -547,7 +529,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J37"/>
+  <x:dimension ref="A1:J16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -835,7 +817,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>13</x:v>
@@ -845,10 +827,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -906,452 +888,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
-      <x:c r="F24" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s"/>
-      <x:c r="F25" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
-      <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s"/>
-      <x:c r="F28" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s"/>
-      <x:c r="F29" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="0" t="s"/>
-      <x:c r="B32" s="0" t="s"/>
-      <x:c r="C32" s="0" t="s"/>
-      <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s"/>
-      <x:c r="F32" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s"/>
-      <x:c r="J32" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s"/>
-      <x:c r="F33" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s"/>
-      <x:c r="J33" s="0" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s"/>
-      <x:c r="B34" s="0" t="s"/>
-      <x:c r="C34" s="0" t="s"/>
-      <x:c r="D34" s="0" t="s"/>
-      <x:c r="E34" s="0" t="s"/>
-      <x:c r="F34" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s"/>
-      <x:c r="J34" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s"/>
-      <x:c r="F35" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s"/>
-      <x:c r="J35" s="0" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
-      <x:c r="C36" s="0" t="s"/>
-      <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s"/>
-      <x:c r="F36" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s"/>
-      <x:c r="J36" s="0" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s"/>
-      <x:c r="F37" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
